--- a/media/BAJAJ-PL/MIS/FEB 22/BAJAJ-PL_PAID_FILE_26FEB22.xlsx
+++ b/media/BAJAJ-PL/MIS/FEB 22/BAJAJ-PL_PAID_FILE_26FEB22.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="188">
   <si>
     <t>DATE</t>
   </si>
@@ -585,6 +585,12 @@
   </si>
   <si>
     <t>Neetu Singh</t>
+  </si>
+  <si>
+    <t>77ARPLFX013661</t>
+  </si>
+  <si>
+    <t>PARMOD RAJENDER</t>
   </si>
 </sst>
 </file>
@@ -1082,11 +1088,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J99"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A94" sqref="A94"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H101" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -4272,6 +4278,70 @@
         <v>59</v>
       </c>
     </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100" s="2">
+        <v>44618</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E100" s="3">
+        <v>3</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G100" s="3">
+        <v>18833</v>
+      </c>
+      <c r="H100" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101" s="2">
+        <v>44618</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E101" s="3">
+        <v>5</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G101" s="3">
+        <v>3339</v>
+      </c>
+      <c r="H101" s="4">
+        <v>31000</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:J80">
     <sortCondition ref="A2"/>
@@ -4291,7 +4361,7 @@
   <conditionalFormatting sqref="C79">
     <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C80:C99">
+  <conditionalFormatting sqref="C80:C101">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
